--- a/ZombieInMyPocket/additional_files/Tiles.xlsx
+++ b/ZombieInMyPocket/additional_files/Tiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProjects\ZombieInMyPocket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProjects\Zimp\ZombieInMyPocket\additional_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF0638-1755-41DC-B5FB-CA54118EC5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2745B0-606B-442A-8DB5-37D23D884421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5021B4DD-1816-4D83-A9DE-5D0BD2A53050}"/>
+    <workbookView xWindow="2535" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{5021B4DD-1816-4D83-A9DE-5D0BD2A53050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
